--- a/biology/Biochimie/ADN_polymérase_V/ADN_polymérase_V.xlsx
+++ b/biology/Biochimie/ADN_polymérase_V/ADN_polymérase_V.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ADN_polym%C3%A9rase_V</t>
+          <t>ADN_polymérase_V</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ADN polymérase V, ou pol V, est une ADN polymérase présente chez les bactéries et qui est impliquée dans la réparation de l'ADN dans le cadre des mécanismes de réparation SOS[1],[2]. Elle est apparentée à l'ADN polymérase IV, qui appartient comme elle à la famille Y des polymérases.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ADN polymérase V, ou pol V, est une ADN polymérase présente chez les bactéries et qui est impliquée dans la réparation de l'ADN dans le cadre des mécanismes de réparation SOS,. Elle est apparentée à l'ADN polymérase IV, qui appartient comme elle à la famille Y des polymérases.
 </t>
         </is>
       </c>
